--- a/Federal/Child_tax_credit_worksheet_2020.xlsx
+++ b/Federal/Child_tax_credit_worksheet_2020.xlsx
@@ -14,17 +14,14 @@
   <sheets>
     <sheet name="IRS f1040" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
-  <si>
-    <t>2019 Child Tax Credit and Credit for Other Dependents Worksheet Line 13a</t>
-  </si>
-  <si>
-    <t>This is from page 35 of the instructions.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+  <si>
+    <t>2020 Child Tax Credit and Credit for Other Dependents Worksheet Line 13a</t>
   </si>
   <si>
     <t/>
@@ -72,185 +69,149 @@
     <t>5</t>
   </si>
   <si>
-    <t>1040 and 1040-SR filers.  Enter the total of any exclusion of income from</t>
-  </si>
-  <si>
-    <t>Puerto Rico; and amounts from Form 2555, lines 45 and 50 and Form 4536,</t>
-  </si>
-  <si>
-    <t>line 15.</t>
+    <t>Enter the amount shown below for your filing status</t>
+  </si>
+  <si>
+    <t>* Married filing jointly  -- $400.00</t>
+  </si>
+  <si>
+    <t>* All other filing statuses  -- $200.00</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>Add lines 4 and 5.  Enter the total</t>
+    <t>Is the amount on line 4 more than the amount on line 5?</t>
+  </si>
+  <si>
+    <t>No:  Leave line 6 blank, enter 0 on line 7 and go to line8</t>
+  </si>
+  <si>
+    <t>Yes:  Subtract line 5 from line 4.  If the result isn't a</t>
+  </si>
+  <si>
+    <t>multiple of $1,000 increase it to next multiple of $1000.00</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Enter the amount shown below for your filing status</t>
-  </si>
-  <si>
-    <t>* Married filing jointly  -- $400.00</t>
-  </si>
-  <si>
-    <t>* All other filing statuses  -- $200.00</t>
+    <t>Multiply the amount on line 6 by 5%</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Is the amount on line 6 more than the amount on line 7?</t>
-  </si>
-  <si>
-    <t>No:  Leave line 8 blank, enter 0 on line 9 and go to line8</t>
-  </si>
-  <si>
-    <t>Yes:  Subtract line 7 from line 6.  If the result isn't a</t>
-  </si>
-  <si>
-    <t>multiple of $1,000 increase it to next multiple of $1000.00</t>
+    <t>Is the amount on line 3 more than the amount on line 7?</t>
+  </si>
+  <si>
+    <t>No: Stop./Yes: Subtract line 7 from line 3. Enter the result and go to part 2.</t>
+  </si>
+  <si>
+    <t>Part 2</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Multiply the amount on line 8 by 5%</t>
+    <t>Enter the amount from Form 1040 or 1040-SR, line 18</t>
+  </si>
+  <si>
+    <t>Enter any amounts from</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>Schedule 3, line 1</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>Schedule 3, line 2</t>
+  </si>
+  <si>
+    <t>10c</t>
+  </si>
+  <si>
+    <t>Schedule 3, line 3</t>
+  </si>
+  <si>
+    <t>10d</t>
+  </si>
+  <si>
+    <t>Schedule 3, line 4</t>
+  </si>
+  <si>
+    <t>10e</t>
+  </si>
+  <si>
+    <t>Form 5696, Line 30*</t>
+  </si>
+  <si>
+    <t>10f</t>
+  </si>
+  <si>
+    <t>Form 8910, Line 15*</t>
+  </si>
+  <si>
+    <t>10g</t>
+  </si>
+  <si>
+    <t>Form 8936, Line 23</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>Schedule R, line 22</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Is the amount on line 3 more than the amount on line 9?</t>
-  </si>
-  <si>
-    <t>No: Stop./Yes: Subtract line 9 from line 3.1</t>
-  </si>
-  <si>
-    <t>Part 2</t>
+    <t>Enter the total</t>
+  </si>
+  <si>
+    <t>Are the amounts on lines 9 and 10 the same?</t>
+  </si>
+  <si>
+    <t>[ ] Yes. STOP.  You can't take the credit, but... see form 8862.</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Enter the amount from Form 1040 line 12b</t>
-  </si>
-  <si>
-    <t>Enter any amounts from</t>
-  </si>
-  <si>
-    <t>12a</t>
-  </si>
-  <si>
-    <t>Schedule 3, line 1</t>
-  </si>
-  <si>
-    <t>12b</t>
-  </si>
-  <si>
-    <t>Schedule 3, line 2</t>
-  </si>
-  <si>
-    <t>12c</t>
-  </si>
-  <si>
-    <t>Schedule 3, line 3</t>
-  </si>
-  <si>
-    <t>12d</t>
-  </si>
-  <si>
-    <t>Schedule 3, line 4</t>
-  </si>
-  <si>
-    <t>12e</t>
-  </si>
-  <si>
-    <t>Form 5696, Line 30*</t>
-  </si>
-  <si>
-    <t>12f</t>
-  </si>
-  <si>
-    <t>Form 8910, Line 15*</t>
-  </si>
-  <si>
-    <t>12g</t>
-  </si>
-  <si>
-    <t>Form 8936, Line 23</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
-    <t>Schedule R, line 22</t>
+    <t>[ ] No. Subtract line 10 from line 9</t>
+  </si>
+  <si>
+    <t>Is the amount on line 8 more than the amount on line 11?</t>
+  </si>
+  <si>
+    <t>additional child tax credit</t>
+  </si>
+  <si>
+    <t>[ ] No. Enter the amount from line 8.</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Enter the total</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Subtract line 12 from line 11</t>
-  </si>
-  <si>
-    <t>Are you claiming any of the following credits?</t>
-  </si>
-  <si>
-    <t>- Mortgage interest credit, Form 8396.</t>
-  </si>
-  <si>
-    <t>- Adoption credit, Form 8839</t>
-  </si>
-  <si>
-    <t>- Residential energy efficient</t>
-  </si>
-  <si>
-    <t>- District of Columbia first-time homebuyer credit, Form 88580</t>
-  </si>
-  <si>
-    <t>[ ] No. Enter -0-.</t>
-  </si>
-  <si>
-    <t>[ ] Yes.  If you are filing Form 2666, enter -0-.  Otherwise complete</t>
-  </si>
-  <si>
-    <t>the Line 14 worksheet.</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Subtract line 14 from line 13.  Enter the result</t>
-  </si>
-  <si>
-    <t>Is the amount on line 10 more than the amount on line 15?</t>
-  </si>
-  <si>
-    <t>[ ] No. Enter the amount from line 10.</t>
-  </si>
-  <si>
-    <t>[ ] Yes.  Enter the amount from Line 15</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>Enter this amount on Form 1040 or 1040-SR, line 19.</t>
+  </si>
+  <si>
+    <t>[ ] Yes.  Enter the amount from line 11 and check out the</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,8 +329,30 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +532,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -665,9 +660,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -710,53 +945,92 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1045,602 +1319,588 @@
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="21">
+        <f>D4*2000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="21">
+        <f>D6*500</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="21">
+        <f>F5+F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="19">
+        <f>_xlfn.CEILING.MATH(MAX(D9-D10,0), 1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21">
+        <f>ROUND(D13*0.05, 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="F18" s="21">
+        <f>MAX(F8-F17,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>9</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" t="s">
+      <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B33" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="21">
+        <f>SUM(D25:D32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B36" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="21">
+        <f>F23-F33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C37" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" t="s">
-        <v>74</v>
+      <c r="F41" s="22">
+        <f>IF(F18&gt;F36,F36,F18)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B22:D22"/>
+  <mergeCells count="13">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>